--- a/CumulativeTestsByTypeByCounty/2021-03-10.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-03-10.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>48326</v>
+        <v>48383</v>
       </c>
       <c r="C2" s="4">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="D2" s="4">
-        <v>6137</v>
+        <v>6192</v>
       </c>
       <c r="E2" s="4">
-        <v>55891</v>
+        <v>56005</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3981</v>
+        <v>3988</v>
       </c>
       <c r="C3" s="4">
         <v>203</v>
       </c>
       <c r="D3" s="4">
-        <v>2074</v>
+        <v>2082</v>
       </c>
       <c r="E3" s="4">
-        <v>6258</v>
+        <v>6273</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>51929</v>
+        <v>51976</v>
       </c>
       <c r="C4" s="4">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="D4" s="4">
-        <v>18946</v>
+        <v>19462</v>
       </c>
       <c r="E4" s="4">
-        <v>72385</v>
+        <v>72950</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>6832</v>
+        <v>6863</v>
       </c>
       <c r="C5" s="4">
-        <v>2084</v>
+        <v>2091</v>
       </c>
       <c r="D5" s="4">
-        <v>4767</v>
+        <v>4802</v>
       </c>
       <c r="E5" s="4">
-        <v>13683</v>
+        <v>13756</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="C6" s="4">
         <v>463</v>
       </c>
       <c r="D6" s="4">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E6" s="4">
-        <v>3677</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1162,10 +1162,10 @@
         <v>227</v>
       </c>
       <c r="D7" s="4">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E7" s="4">
-        <v>964</v>
+        <v>976</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>47609</v>
+        <v>47798</v>
       </c>
       <c r="C8" s="4">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="D8" s="4">
-        <v>3838</v>
+        <v>3864</v>
       </c>
       <c r="E8" s="4">
-        <v>52472</v>
+        <v>52691</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>16235</v>
+        <v>16266</v>
       </c>
       <c r="C9" s="4">
         <v>442</v>
       </c>
       <c r="D9" s="4">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="E9" s="4">
-        <v>17693</v>
+        <v>17737</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C10" s="4">
         <v>41</v>
       </c>
       <c r="D10" s="4">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E10" s="4">
-        <v>2197</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>7182</v>
+        <v>7226</v>
       </c>
       <c r="C11" s="4">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D11" s="4">
-        <v>3041</v>
+        <v>3089</v>
       </c>
       <c r="E11" s="4">
-        <v>10661</v>
+        <v>10756</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>46164</v>
+        <v>46326</v>
       </c>
       <c r="C12" s="4">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D12" s="4">
-        <v>14328</v>
+        <v>14444</v>
       </c>
       <c r="E12" s="4">
-        <v>61565</v>
+        <v>61844</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C13" s="4">
         <v>152</v>
       </c>
       <c r="D13" s="4">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E13" s="4">
-        <v>2144</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>29317</v>
+        <v>29333</v>
       </c>
       <c r="C14" s="4">
-        <v>5058</v>
+        <v>5069</v>
       </c>
       <c r="D14" s="4">
-        <v>6084</v>
+        <v>6161</v>
       </c>
       <c r="E14" s="4">
-        <v>40459</v>
+        <v>40563</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>220290</v>
+        <v>220568</v>
       </c>
       <c r="C15" s="4">
-        <v>13072</v>
+        <v>13074</v>
       </c>
       <c r="D15" s="4">
-        <v>12128</v>
+        <v>12252</v>
       </c>
       <c r="E15" s="4">
-        <v>245490</v>
+        <v>245894</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1667768</v>
+        <v>1675736</v>
       </c>
       <c r="C16" s="4">
-        <v>45291</v>
+        <v>45906</v>
       </c>
       <c r="D16" s="4">
-        <v>165188</v>
+        <v>167119</v>
       </c>
       <c r="E16" s="4">
-        <v>1878247</v>
+        <v>1888761</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>5209</v>
+        <v>5222</v>
       </c>
       <c r="C17" s="4">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D17" s="4">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="E17" s="4">
-        <v>6024</v>
+        <v>6049</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>8240</v>
+        <v>8280</v>
       </c>
       <c r="C19" s="4">
         <v>463</v>
       </c>
       <c r="D19" s="4">
-        <v>4145</v>
+        <v>4156</v>
       </c>
       <c r="E19" s="4">
-        <v>12848</v>
+        <v>12899</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>55474</v>
+        <v>55653</v>
       </c>
       <c r="C20" s="4">
         <v>9746</v>
       </c>
       <c r="D20" s="4">
-        <v>9605</v>
+        <v>9727</v>
       </c>
       <c r="E20" s="4">
-        <v>74825</v>
+        <v>75126</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>286858</v>
+        <v>287600</v>
       </c>
       <c r="C21" s="4">
-        <v>8939</v>
+        <v>8957</v>
       </c>
       <c r="D21" s="4">
-        <v>28873</v>
+        <v>29345</v>
       </c>
       <c r="E21" s="4">
-        <v>324670</v>
+        <v>325902</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>218586</v>
+        <v>219426</v>
       </c>
       <c r="C22" s="4">
-        <v>5540</v>
+        <v>5544</v>
       </c>
       <c r="D22" s="4">
-        <v>14727</v>
+        <v>14836</v>
       </c>
       <c r="E22" s="4">
-        <v>238853</v>
+        <v>239806</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8442</v>
+        <v>8444</v>
       </c>
       <c r="C23" s="4">
         <v>111</v>
       </c>
       <c r="D23" s="4">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="E23" s="4">
-        <v>9380</v>
+        <v>9390</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1451,10 +1451,10 @@
         <v>117</v>
       </c>
       <c r="D24" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E24" s="4">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>13196</v>
+        <v>13298</v>
       </c>
       <c r="C25" s="4">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D25" s="4">
-        <v>1837</v>
+        <v>1921</v>
       </c>
       <c r="E25" s="4">
-        <v>16342</v>
+        <v>16530</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>15790</v>
+        <v>15812</v>
       </c>
       <c r="C26" s="4">
         <v>750</v>
       </c>
       <c r="D26" s="4">
-        <v>15715</v>
+        <v>15834</v>
       </c>
       <c r="E26" s="4">
-        <v>32255</v>
+        <v>32396</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>12920</v>
+        <v>12950</v>
       </c>
       <c r="C27" s="4">
         <v>239</v>
       </c>
       <c r="D27" s="4">
-        <v>2049</v>
+        <v>2068</v>
       </c>
       <c r="E27" s="4">
-        <v>15208</v>
+        <v>15257</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>30243</v>
+        <v>30279</v>
       </c>
       <c r="C28" s="4">
         <v>1052</v>
       </c>
       <c r="D28" s="4">
-        <v>3054</v>
+        <v>3091</v>
       </c>
       <c r="E28" s="4">
-        <v>34349</v>
+        <v>34422</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>29804</v>
+        <v>29925</v>
       </c>
       <c r="C29" s="4">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D29" s="4">
-        <v>4802</v>
+        <v>4887</v>
       </c>
       <c r="E29" s="4">
-        <v>36131</v>
+        <v>36338</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>12546</v>
+        <v>12566</v>
       </c>
       <c r="C30" s="4">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D30" s="4">
-        <v>4042</v>
+        <v>4153</v>
       </c>
       <c r="E30" s="4">
-        <v>16955</v>
+        <v>17087</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4845</v>
+        <v>4848</v>
       </c>
       <c r="C31" s="4">
         <v>218</v>
       </c>
       <c r="D31" s="4">
-        <v>4552</v>
+        <v>4609</v>
       </c>
       <c r="E31" s="4">
-        <v>9615</v>
+        <v>9675</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>229395</v>
+        <v>230116</v>
       </c>
       <c r="C32" s="4">
-        <v>7490</v>
+        <v>7491</v>
       </c>
       <c r="D32" s="4">
-        <v>41210</v>
+        <v>41986</v>
       </c>
       <c r="E32" s="4">
-        <v>278095</v>
+        <v>279593</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5458</v>
+        <v>5465</v>
       </c>
       <c r="C33" s="4">
         <v>356</v>
       </c>
       <c r="D33" s="4">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E33" s="4">
-        <v>7404</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1535</v>
+        <v>1544</v>
       </c>
       <c r="C34" s="4">
         <v>830</v>
       </c>
       <c r="D34" s="4">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E34" s="4">
-        <v>2654</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>11210</v>
+        <v>11220</v>
       </c>
       <c r="C35" s="4">
         <v>3115</v>
       </c>
       <c r="D35" s="4">
-        <v>3182</v>
+        <v>3199</v>
       </c>
       <c r="E35" s="4">
-        <v>17507</v>
+        <v>17534</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3746</v>
+        <v>3760</v>
       </c>
       <c r="C36" s="4">
         <v>230</v>
       </c>
       <c r="D36" s="4">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="E36" s="4">
-        <v>5608</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>7319</v>
+        <v>7324</v>
       </c>
       <c r="C37" s="4">
         <v>544</v>
       </c>
       <c r="D37" s="4">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="E37" s="4">
-        <v>9042</v>
+        <v>9053</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>21233</v>
+        <v>21304</v>
       </c>
       <c r="C38" s="4">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="D38" s="4">
-        <v>6716</v>
+        <v>6757</v>
       </c>
       <c r="E38" s="4">
-        <v>28691</v>
+        <v>28807</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2736</v>
+        <v>2757</v>
       </c>
       <c r="C39" s="4">
         <v>359</v>
       </c>
       <c r="D39" s="4">
-        <v>4053</v>
+        <v>4056</v>
       </c>
       <c r="E39" s="4">
-        <v>7148</v>
+        <v>7172</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="C40" s="4">
         <v>407</v>
       </c>
       <c r="D40" s="4">
-        <v>1273</v>
+        <v>1331</v>
       </c>
       <c r="E40" s="4">
-        <v>5566</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="C42" s="4">
         <v>24</v>
       </c>
       <c r="D42" s="4">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="E42" s="4">
-        <v>3552</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="C43" s="4">
         <v>87</v>
       </c>
       <c r="D43" s="4">
-        <v>2567</v>
+        <v>2582</v>
       </c>
       <c r="E43" s="4">
-        <v>5592</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>813241</v>
+        <v>817994</v>
       </c>
       <c r="C44" s="4">
-        <v>76981</v>
+        <v>77086</v>
       </c>
       <c r="D44" s="4">
-        <v>79953</v>
+        <v>81349</v>
       </c>
       <c r="E44" s="4">
-        <v>970175</v>
+        <v>976429</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C45" s="4">
         <v>94</v>
       </c>
       <c r="D45" s="4">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="E45" s="4">
-        <v>2350</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>10985</v>
+        <v>10998</v>
       </c>
       <c r="C46" s="4">
         <v>308</v>
       </c>
       <c r="D46" s="4">
-        <v>3352</v>
+        <v>3469</v>
       </c>
       <c r="E46" s="4">
-        <v>14645</v>
+        <v>14775</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>87598</v>
+        <v>87924</v>
       </c>
       <c r="C47" s="4">
-        <v>6830</v>
+        <v>6921</v>
       </c>
       <c r="D47" s="4">
-        <v>16425</v>
+        <v>16704</v>
       </c>
       <c r="E47" s="4">
-        <v>110853</v>
+        <v>111549</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>6167</v>
+        <v>6181</v>
       </c>
       <c r="C48" s="4">
         <v>296</v>
       </c>
       <c r="D48" s="4">
-        <v>2063</v>
+        <v>2096</v>
       </c>
       <c r="E48" s="4">
-        <v>8526</v>
+        <v>8573</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,7 +1870,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="C49" s="4">
         <v>15</v>
@@ -1879,7 +1879,7 @@
         <v>1398</v>
       </c>
       <c r="E49" s="4">
-        <v>2769</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>21962</v>
+        <v>21991</v>
       </c>
       <c r="C50" s="4">
         <v>1283</v>
       </c>
       <c r="D50" s="4">
-        <v>4355</v>
+        <v>4393</v>
       </c>
       <c r="E50" s="4">
-        <v>27600</v>
+        <v>27667</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>78803</v>
+        <v>78951</v>
       </c>
       <c r="C51" s="4">
         <v>2134</v>
       </c>
       <c r="D51" s="4">
-        <v>2972</v>
+        <v>3003</v>
       </c>
       <c r="E51" s="4">
-        <v>83909</v>
+        <v>84088</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C52" s="4">
         <v>43</v>
       </c>
       <c r="D52" s="4">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E52" s="4">
-        <v>1373</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="C53" s="4">
         <v>66</v>
       </c>
       <c r="D53" s="4">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E53" s="4">
-        <v>5404</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1961,10 +1961,10 @@
         <v>13</v>
       </c>
       <c r="D54" s="4">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="E54" s="4">
-        <v>2768</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="C55" s="4">
         <v>23</v>
       </c>
       <c r="D55" s="4">
-        <v>1462</v>
+        <v>1467</v>
       </c>
       <c r="E55" s="4">
-        <v>3807</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="C56" s="4">
         <v>13</v>
       </c>
       <c r="D56" s="4">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E56" s="4">
-        <v>2237</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C57" s="4">
         <v>307</v>
       </c>
       <c r="D57" s="4">
-        <v>1539</v>
+        <v>1599</v>
       </c>
       <c r="E57" s="4">
-        <v>2890</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2071511</v>
+        <v>2081376</v>
       </c>
       <c r="C58" s="4">
-        <v>126703</v>
+        <v>126845</v>
       </c>
       <c r="D58" s="4">
-        <v>169533</v>
+        <v>172010</v>
       </c>
       <c r="E58" s="4">
-        <v>2367747</v>
+        <v>2380231</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>7305</v>
+        <v>7306</v>
       </c>
       <c r="C59" s="4">
         <v>441</v>
       </c>
       <c r="D59" s="4">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E59" s="4">
-        <v>9742</v>
+        <v>9747</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>8310</v>
+        <v>8325</v>
       </c>
       <c r="C60" s="4">
         <v>219</v>
       </c>
       <c r="D60" s="4">
-        <v>2174</v>
+        <v>2182</v>
       </c>
       <c r="E60" s="4">
-        <v>10703</v>
+        <v>10726</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4436</v>
+        <v>4451</v>
       </c>
       <c r="C61" s="4">
         <v>821</v>
       </c>
       <c r="D61" s="4">
-        <v>1949</v>
+        <v>1958</v>
       </c>
       <c r="E61" s="4">
-        <v>7206</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="C62" s="4">
         <v>215</v>
       </c>
       <c r="D62" s="4">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="E62" s="4">
-        <v>2809</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>507140</v>
+        <v>509328</v>
       </c>
       <c r="C63" s="4">
-        <v>56683</v>
+        <v>56719</v>
       </c>
       <c r="D63" s="4">
-        <v>71888</v>
+        <v>73478</v>
       </c>
       <c r="E63" s="4">
-        <v>635711</v>
+        <v>639525</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C64" s="4">
         <v>7</v>
       </c>
       <c r="D64" s="4">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E64" s="4">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>9594</v>
+        <v>9637</v>
       </c>
       <c r="C65" s="4">
         <v>92</v>
       </c>
       <c r="D65" s="4">
-        <v>1139</v>
+        <v>1160</v>
       </c>
       <c r="E65" s="4">
-        <v>10825</v>
+        <v>10889</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C66" s="4">
         <v>369</v>
       </c>
       <c r="D66" s="4">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="E66" s="4">
-        <v>2124</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>15975</v>
+        <v>16102</v>
       </c>
       <c r="C67" s="4">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="D67" s="4">
-        <v>1757</v>
+        <v>1773</v>
       </c>
       <c r="E67" s="4">
-        <v>19995</v>
+        <v>20140</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4429</v>
+        <v>4444</v>
       </c>
       <c r="C68" s="4">
         <v>340</v>
       </c>
       <c r="D68" s="4">
-        <v>3180</v>
+        <v>3201</v>
       </c>
       <c r="E68" s="4">
-        <v>7949</v>
+        <v>7985</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>55039</v>
+        <v>55154</v>
       </c>
       <c r="C69" s="4">
-        <v>4443</v>
+        <v>4446</v>
       </c>
       <c r="D69" s="4">
-        <v>15447</v>
+        <v>15684</v>
       </c>
       <c r="E69" s="4">
-        <v>74929</v>
+        <v>75284</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
       </c>
       <c r="D70" s="4">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E70" s="4">
-        <v>1448</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>789718</v>
+        <v>792952</v>
       </c>
       <c r="C71" s="4">
-        <v>16158</v>
+        <v>16159</v>
       </c>
       <c r="D71" s="4">
-        <v>188080</v>
+        <v>189627</v>
       </c>
       <c r="E71" s="4">
-        <v>993956</v>
+        <v>998738</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>149255</v>
+        <v>149895</v>
       </c>
       <c r="C72" s="4">
-        <v>6812</v>
+        <v>6814</v>
       </c>
       <c r="D72" s="4">
-        <v>12258</v>
+        <v>12443</v>
       </c>
       <c r="E72" s="4">
-        <v>168325</v>
+        <v>169152</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>16438</v>
+        <v>16487</v>
       </c>
       <c r="C73" s="4">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D73" s="4">
-        <v>5813</v>
+        <v>5902</v>
       </c>
       <c r="E73" s="4">
-        <v>23343</v>
+        <v>23482</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>11618</v>
+        <v>11629</v>
       </c>
       <c r="C74" s="4">
         <v>405</v>
       </c>
       <c r="D74" s="4">
-        <v>2636</v>
+        <v>2643</v>
       </c>
       <c r="E74" s="4">
-        <v>14659</v>
+        <v>14677</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>23520</v>
+        <v>23560</v>
       </c>
       <c r="C75" s="4">
         <v>759</v>
       </c>
       <c r="D75" s="4">
-        <v>4156</v>
+        <v>4171</v>
       </c>
       <c r="E75" s="4">
-        <v>28435</v>
+        <v>28490</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>12854</v>
+        <v>12902</v>
       </c>
       <c r="C76" s="4">
         <v>386</v>
       </c>
       <c r="D76" s="4">
-        <v>1932</v>
+        <v>1964</v>
       </c>
       <c r="E76" s="4">
-        <v>15172</v>
+        <v>15252</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C77" s="4">
         <v>29</v>
       </c>
       <c r="D77" s="4">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E77" s="4">
-        <v>1571</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,7 +2363,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>2146</v>
+        <v>2160</v>
       </c>
       <c r="C78" s="4">
         <v>111</v>
@@ -2372,7 +2372,7 @@
         <v>315</v>
       </c>
       <c r="E78" s="4">
-        <v>2572</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2386,10 +2386,10 @@
         <v>78</v>
       </c>
       <c r="D79" s="4">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E79" s="4">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>578464</v>
+        <v>580443</v>
       </c>
       <c r="C80" s="4">
-        <v>21579</v>
+        <v>21650</v>
       </c>
       <c r="D80" s="4">
-        <v>31751</v>
+        <v>32466</v>
       </c>
       <c r="E80" s="4">
-        <v>631794</v>
+        <v>634559</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>4077</v>
+        <v>4083</v>
       </c>
       <c r="C81" s="4">
         <v>469</v>
       </c>
       <c r="D81" s="4">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E81" s="4">
-        <v>5211</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>13041</v>
+        <v>13057</v>
       </c>
       <c r="C82" s="4">
         <v>657</v>
       </c>
       <c r="D82" s="4">
-        <v>4055</v>
+        <v>4128</v>
       </c>
       <c r="E82" s="4">
-        <v>17753</v>
+        <v>17842</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>15506</v>
+        <v>15530</v>
       </c>
       <c r="C83" s="4">
         <v>426</v>
       </c>
       <c r="D83" s="4">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="E83" s="4">
-        <v>16641</v>
+        <v>16679</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>3121</v>
+        <v>3125</v>
       </c>
       <c r="C84" s="4">
         <v>210</v>
       </c>
       <c r="D84" s="4">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E84" s="4">
-        <v>4106</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>308702</v>
+        <v>309492</v>
       </c>
       <c r="C85" s="4">
-        <v>9333</v>
+        <v>9355</v>
       </c>
       <c r="D85" s="4">
-        <v>22766</v>
+        <v>23042</v>
       </c>
       <c r="E85" s="4">
-        <v>340801</v>
+        <v>341889</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C86" s="4">
         <v>50</v>
       </c>
       <c r="D86" s="4">
-        <v>1307</v>
+        <v>1314</v>
       </c>
       <c r="E86" s="4">
-        <v>3030</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>14665</v>
+        <v>14706</v>
       </c>
       <c r="C87" s="4">
         <v>362</v>
       </c>
       <c r="D87" s="4">
-        <v>3069</v>
+        <v>3142</v>
       </c>
       <c r="E87" s="4">
-        <v>18096</v>
+        <v>18210</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2444</v>
+        <v>2451</v>
       </c>
       <c r="C89" s="4">
         <v>151</v>
       </c>
       <c r="D89" s="4">
-        <v>1617</v>
+        <v>1625</v>
       </c>
       <c r="E89" s="4">
-        <v>4212</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>11819</v>
+        <v>11840</v>
       </c>
       <c r="C90" s="4">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D90" s="4">
-        <v>3335</v>
+        <v>3349</v>
       </c>
       <c r="E90" s="4">
-        <v>15447</v>
+        <v>15486</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>7105</v>
+        <v>7144</v>
       </c>
       <c r="C91" s="4">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D91" s="4">
-        <v>1793</v>
+        <v>1807</v>
       </c>
       <c r="E91" s="4">
-        <v>9793</v>
+        <v>9847</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>94855</v>
+        <v>95039</v>
       </c>
       <c r="C92" s="4">
-        <v>3686</v>
+        <v>3688</v>
       </c>
       <c r="D92" s="4">
-        <v>11552</v>
+        <v>11639</v>
       </c>
       <c r="E92" s="4">
-        <v>110093</v>
+        <v>110366</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>44224</v>
+        <v>44334</v>
       </c>
       <c r="C93" s="4">
-        <v>9956</v>
+        <v>9964</v>
       </c>
       <c r="D93" s="4">
-        <v>13412</v>
+        <v>13484</v>
       </c>
       <c r="E93" s="4">
-        <v>67592</v>
+        <v>67782</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>26051</v>
+        <v>26107</v>
       </c>
       <c r="C94" s="4">
         <v>486</v>
       </c>
       <c r="D94" s="4">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="E94" s="4">
-        <v>28544</v>
+        <v>28613</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>69816</v>
+        <v>70126</v>
       </c>
       <c r="C95" s="4">
-        <v>3183</v>
+        <v>3273</v>
       </c>
       <c r="D95" s="4">
-        <v>13562</v>
+        <v>13675</v>
       </c>
       <c r="E95" s="4">
-        <v>86561</v>
+        <v>87074</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>12258</v>
+        <v>12397</v>
       </c>
       <c r="C96" s="4">
         <v>281</v>
       </c>
       <c r="D96" s="4">
-        <v>1949</v>
+        <v>1969</v>
       </c>
       <c r="E96" s="4">
-        <v>14488</v>
+        <v>14647</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2692,10 +2692,10 @@
         <v>40</v>
       </c>
       <c r="D97" s="4">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="E97" s="4">
-        <v>3144</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4704</v>
+        <v>4720</v>
       </c>
       <c r="C98" s="4">
         <v>304</v>
       </c>
       <c r="D98" s="4">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="E98" s="4">
-        <v>6100</v>
+        <v>6122</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1194</v>
+        <v>1199</v>
       </c>
       <c r="C99" s="4">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D99" s="4">
-        <v>1688</v>
+        <v>1703</v>
       </c>
       <c r="E99" s="4">
-        <v>3478</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1427</v>
+        <v>1434</v>
       </c>
       <c r="C100" s="4">
         <v>205</v>
       </c>
       <c r="D100" s="4">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="E100" s="4">
-        <v>2502</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>18448</v>
+        <v>18496</v>
       </c>
       <c r="C101" s="4">
-        <v>3151</v>
+        <v>3154</v>
       </c>
       <c r="D101" s="4">
-        <v>5420</v>
+        <v>5569</v>
       </c>
       <c r="E101" s="4">
-        <v>27019</v>
+        <v>27219</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3542847</v>
+        <v>3558821</v>
       </c>
       <c r="C102" s="4">
-        <v>129808</v>
+        <v>130072</v>
       </c>
       <c r="D102" s="4">
-        <v>264040</v>
+        <v>268674</v>
       </c>
       <c r="E102" s="4">
-        <v>3936695</v>
+        <v>3957567</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>54105</v>
+        <v>54257</v>
       </c>
       <c r="C103" s="4">
-        <v>7428</v>
+        <v>7443</v>
       </c>
       <c r="D103" s="4">
-        <v>7678</v>
+        <v>7717</v>
       </c>
       <c r="E103" s="4">
-        <v>69211</v>
+        <v>69417</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2811,10 +2811,10 @@
         <v>50</v>
       </c>
       <c r="D104" s="4">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E104" s="4">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C105" s="4">
         <v>34</v>
       </c>
       <c r="D105" s="4">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="E105" s="4">
-        <v>2528</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>207987</v>
+        <v>209371</v>
       </c>
       <c r="C106" s="4">
-        <v>10158</v>
+        <v>10169</v>
       </c>
       <c r="D106" s="4">
-        <v>13193</v>
+        <v>13584</v>
       </c>
       <c r="E106" s="4">
-        <v>231338</v>
+        <v>233124</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,16 +2856,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C107" s="4">
         <v>392</v>
       </c>
       <c r="D107" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E107" s="4">
-        <v>1425</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>24356</v>
+        <v>24577</v>
       </c>
       <c r="C108" s="4">
         <v>2099</v>
       </c>
       <c r="D108" s="4">
-        <v>6816</v>
+        <v>6875</v>
       </c>
       <c r="E108" s="4">
-        <v>33271</v>
+        <v>33551</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>402753</v>
+        <v>404393</v>
       </c>
       <c r="C109" s="4">
         <v>14510</v>
       </c>
       <c r="D109" s="4">
-        <v>104094</v>
+        <v>105913</v>
       </c>
       <c r="E109" s="4">
-        <v>521357</v>
+        <v>524816</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>30478</v>
+        <v>30618</v>
       </c>
       <c r="C110" s="4">
         <v>964</v>
       </c>
       <c r="D110" s="4">
-        <v>5216</v>
+        <v>5252</v>
       </c>
       <c r="E110" s="4">
-        <v>36658</v>
+        <v>36834</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>7157</v>
+        <v>7163</v>
       </c>
       <c r="C111" s="4">
         <v>82</v>
       </c>
       <c r="D111" s="4">
-        <v>2919</v>
+        <v>2925</v>
       </c>
       <c r="E111" s="4">
-        <v>10158</v>
+        <v>10170</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>32111</v>
+        <v>32243</v>
       </c>
       <c r="C112" s="4">
         <v>2304</v>
       </c>
       <c r="D112" s="4">
-        <v>16833</v>
+        <v>16862</v>
       </c>
       <c r="E112" s="4">
-        <v>51248</v>
+        <v>51409</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>15659</v>
+        <v>15685</v>
       </c>
       <c r="C113" s="4">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="D113" s="4">
-        <v>2762</v>
+        <v>2776</v>
       </c>
       <c r="E113" s="4">
-        <v>20251</v>
+        <v>20293</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>14107</v>
+        <v>14119</v>
       </c>
       <c r="C114" s="4">
         <v>337</v>
       </c>
       <c r="D114" s="4">
-        <v>2596</v>
+        <v>2621</v>
       </c>
       <c r="E114" s="4">
-        <v>17040</v>
+        <v>17077</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>15195</v>
+        <v>15198</v>
       </c>
       <c r="C115" s="4">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D115" s="4">
-        <v>3722</v>
+        <v>3771</v>
       </c>
       <c r="E115" s="4">
-        <v>19376</v>
+        <v>19430</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2334</v>
+        <v>2343</v>
       </c>
       <c r="C116" s="4">
         <v>31</v>
       </c>
       <c r="D116" s="4">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="E116" s="4">
-        <v>3308</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>69507</v>
+        <v>69729</v>
       </c>
       <c r="C117" s="4">
-        <v>3543</v>
+        <v>3550</v>
       </c>
       <c r="D117" s="4">
-        <v>8595</v>
+        <v>8690</v>
       </c>
       <c r="E117" s="4">
-        <v>81645</v>
+        <v>81969</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>8085</v>
+        <v>8093</v>
       </c>
       <c r="C118" s="4">
         <v>1251</v>
       </c>
       <c r="D118" s="4">
-        <v>3229</v>
+        <v>3291</v>
       </c>
       <c r="E118" s="4">
-        <v>12565</v>
+        <v>12635</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C119" s="4">
         <v>9</v>
       </c>
       <c r="D119" s="4">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E119" s="4">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,7 +3077,7 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1625</v>
+        <v>1632</v>
       </c>
       <c r="C120" s="4">
         <v>178</v>
@@ -3086,7 +3086,7 @@
         <v>294</v>
       </c>
       <c r="E120" s="4">
-        <v>2097</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6535</v>
+        <v>6547</v>
       </c>
       <c r="C121" s="4">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D121" s="4">
-        <v>1482</v>
+        <v>1495</v>
       </c>
       <c r="E121" s="4">
-        <v>8152</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>12340</v>
+        <v>12387</v>
       </c>
       <c r="C122" s="4">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="D122" s="4">
-        <v>3195</v>
+        <v>3233</v>
       </c>
       <c r="E122" s="4">
-        <v>18056</v>
+        <v>18142</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C123" s="4">
         <v>35</v>
       </c>
       <c r="D123" s="4">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E123" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>146687</v>
+        <v>147006</v>
       </c>
       <c r="C124" s="4">
-        <v>11887</v>
+        <v>11904</v>
       </c>
       <c r="D124" s="4">
-        <v>29608</v>
+        <v>29817</v>
       </c>
       <c r="E124" s="4">
-        <v>188182</v>
+        <v>188727</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>12601</v>
+        <v>12766</v>
       </c>
       <c r="C125" s="4">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D125" s="4">
-        <v>3213</v>
+        <v>3216</v>
       </c>
       <c r="E125" s="4">
-        <v>16312</v>
+        <v>16481</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>43895</v>
+        <v>43953</v>
       </c>
       <c r="C126" s="4">
-        <v>7283</v>
+        <v>7292</v>
       </c>
       <c r="D126" s="4">
-        <v>12966</v>
+        <v>13105</v>
       </c>
       <c r="E126" s="4">
-        <v>64144</v>
+        <v>64350</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>106011</v>
+        <v>106386</v>
       </c>
       <c r="C127" s="4">
-        <v>6312</v>
+        <v>6319</v>
       </c>
       <c r="D127" s="4">
-        <v>13420</v>
+        <v>13643</v>
       </c>
       <c r="E127" s="4">
-        <v>125743</v>
+        <v>126348</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5579</v>
+        <v>5583</v>
       </c>
       <c r="C128" s="4">
         <v>193</v>
       </c>
       <c r="D128" s="4">
-        <v>2541</v>
+        <v>2579</v>
       </c>
       <c r="E128" s="4">
-        <v>8313</v>
+        <v>8355</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>12450</v>
+        <v>12471</v>
       </c>
       <c r="C129" s="4">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D129" s="4">
-        <v>4177</v>
+        <v>4188</v>
       </c>
       <c r="E129" s="4">
-        <v>17024</v>
+        <v>17058</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>93197</v>
+        <v>93462</v>
       </c>
       <c r="C130" s="4">
-        <v>4932</v>
+        <v>4934</v>
       </c>
       <c r="D130" s="4">
-        <v>14321</v>
+        <v>14576</v>
       </c>
       <c r="E130" s="4">
-        <v>112450</v>
+        <v>112972</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>20670</v>
+        <v>20778</v>
       </c>
       <c r="C131" s="4">
-        <v>1269</v>
+        <v>1286</v>
       </c>
       <c r="D131" s="4">
-        <v>7238</v>
+        <v>7301</v>
       </c>
       <c r="E131" s="4">
-        <v>29177</v>
+        <v>29365</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3298,16 +3298,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E133" s="4">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>28486</v>
+        <v>28637</v>
       </c>
       <c r="C134" s="4">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="D134" s="4">
-        <v>17282</v>
+        <v>17430</v>
       </c>
       <c r="E134" s="4">
-        <v>46439</v>
+        <v>46744</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="C135" s="4">
         <v>38</v>
       </c>
       <c r="D135" s="4">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E135" s="4">
-        <v>1871</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="C137" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D137" s="4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E137" s="4">
-        <v>2073</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>24402</v>
+        <v>24444</v>
       </c>
       <c r="C138" s="4">
-        <v>4099</v>
+        <v>4107</v>
       </c>
       <c r="D138" s="4">
-        <v>5750</v>
+        <v>5847</v>
       </c>
       <c r="E138" s="4">
-        <v>34251</v>
+        <v>34398</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3406,10 +3406,10 @@
         <v>41</v>
       </c>
       <c r="D139" s="4">
-        <v>2355</v>
+        <v>2390</v>
       </c>
       <c r="E139" s="4">
-        <v>3027</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6687</v>
+        <v>6693</v>
       </c>
       <c r="C140" s="4">
         <v>279</v>
       </c>
       <c r="D140" s="4">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E140" s="4">
-        <v>7239</v>
+        <v>7246</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>20533</v>
+        <v>20591</v>
       </c>
       <c r="C141" s="4">
         <v>2132</v>
       </c>
       <c r="D141" s="4">
-        <v>3142</v>
+        <v>3242</v>
       </c>
       <c r="E141" s="4">
-        <v>25807</v>
+        <v>25965</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5185</v>
+        <v>5189</v>
       </c>
       <c r="C142" s="4">
         <v>87</v>
       </c>
       <c r="D142" s="4">
-        <v>3985</v>
+        <v>4053</v>
       </c>
       <c r="E142" s="4">
-        <v>9257</v>
+        <v>9329</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>15109</v>
+        <v>15117</v>
       </c>
       <c r="C143" s="4">
         <v>604</v>
       </c>
       <c r="D143" s="4">
-        <v>2989</v>
+        <v>3047</v>
       </c>
       <c r="E143" s="4">
-        <v>18702</v>
+        <v>18768</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>10665</v>
+        <v>10681</v>
       </c>
       <c r="C144" s="4">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D144" s="4">
-        <v>2473</v>
+        <v>2484</v>
       </c>
       <c r="E144" s="4">
-        <v>13580</v>
+        <v>13610</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>7345</v>
+        <v>7360</v>
       </c>
       <c r="C145" s="4">
         <v>212</v>
       </c>
       <c r="D145" s="4">
-        <v>2514</v>
+        <v>2525</v>
       </c>
       <c r="E145" s="4">
-        <v>10071</v>
+        <v>10097</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>8651</v>
+        <v>8667</v>
       </c>
       <c r="C146" s="4">
         <v>479</v>
       </c>
       <c r="D146" s="4">
-        <v>1512</v>
+        <v>1532</v>
       </c>
       <c r="E146" s="4">
-        <v>10642</v>
+        <v>10678</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>47245</v>
+        <v>47385</v>
       </c>
       <c r="C147" s="4">
         <v>2933</v>
       </c>
       <c r="D147" s="4">
-        <v>4988</v>
+        <v>5107</v>
       </c>
       <c r="E147" s="4">
-        <v>55166</v>
+        <v>55425</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>27624</v>
+        <v>27695</v>
       </c>
       <c r="C148" s="4">
         <v>572</v>
       </c>
       <c r="D148" s="4">
-        <v>5149</v>
+        <v>5208</v>
       </c>
       <c r="E148" s="4">
-        <v>33345</v>
+        <v>33475</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3576,10 +3576,10 @@
         <v>167</v>
       </c>
       <c r="D149" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E149" s="4">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4798</v>
+        <v>4803</v>
       </c>
       <c r="C150" s="4">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D150" s="4">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="E150" s="4">
-        <v>6336</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>9178</v>
+        <v>9329</v>
       </c>
       <c r="C151" s="4">
         <v>317</v>
       </c>
       <c r="D151" s="4">
-        <v>1326</v>
+        <v>1334</v>
       </c>
       <c r="E151" s="4">
-        <v>10821</v>
+        <v>10980</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>182716</v>
+        <v>183068</v>
       </c>
       <c r="C153" s="4">
         <v>6345</v>
       </c>
       <c r="D153" s="4">
-        <v>84386</v>
+        <v>84752</v>
       </c>
       <c r="E153" s="4">
-        <v>273447</v>
+        <v>274165</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="C154" s="4">
         <v>93</v>
       </c>
       <c r="D154" s="4">
-        <v>1629</v>
+        <v>1649</v>
       </c>
       <c r="E154" s="4">
-        <v>4463</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>11322</v>
+        <v>11339</v>
       </c>
       <c r="C155" s="4">
         <v>163</v>
       </c>
       <c r="D155" s="4">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="E155" s="4">
-        <v>13258</v>
+        <v>13278</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2201</v>
+        <v>2205</v>
       </c>
       <c r="C156" s="4">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D156" s="4">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="E156" s="4">
-        <v>4408</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C157" s="4">
         <v>127</v>
       </c>
       <c r="D157" s="4">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E157" s="4">
-        <v>1760</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="C158" s="4">
         <v>57</v>
       </c>
       <c r="D158" s="4">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E158" s="4">
-        <v>2239</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>28544</v>
+        <v>28765</v>
       </c>
       <c r="C159" s="4">
         <v>651</v>
       </c>
       <c r="D159" s="4">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="E159" s="4">
-        <v>31172</v>
+        <v>31401</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>52477</v>
+        <v>52655</v>
       </c>
       <c r="C160" s="4">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D160" s="4">
-        <v>5638</v>
+        <v>5938</v>
       </c>
       <c r="E160" s="4">
-        <v>58454</v>
+        <v>58934</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="C161" s="4">
         <v>40</v>
       </c>
       <c r="D161" s="4">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="E161" s="4">
-        <v>3383</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>208116</v>
+        <v>208703</v>
       </c>
       <c r="C162" s="4">
         <v>9492</v>
       </c>
       <c r="D162" s="4">
-        <v>44084</v>
+        <v>44417</v>
       </c>
       <c r="E162" s="4">
-        <v>261692</v>
+        <v>262612</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3814,10 +3814,10 @@
         <v>42</v>
       </c>
       <c r="D163" s="4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E163" s="4">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>25573</v>
+        <v>25647</v>
       </c>
       <c r="C164" s="4">
-        <v>1057</v>
+        <v>1084</v>
       </c>
       <c r="D164" s="4">
-        <v>4299</v>
+        <v>4344</v>
       </c>
       <c r="E164" s="4">
-        <v>30929</v>
+        <v>31075</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C165" s="4">
         <v>21</v>
       </c>
       <c r="D165" s="4">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E165" s="4">
-        <v>2286</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>41705</v>
+        <v>41818</v>
       </c>
       <c r="C166" s="4">
-        <v>5453</v>
+        <v>5458</v>
       </c>
       <c r="D166" s="4">
-        <v>33333</v>
+        <v>33578</v>
       </c>
       <c r="E166" s="4">
-        <v>80491</v>
+        <v>80854</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>14775</v>
+        <v>14800</v>
       </c>
       <c r="C167" s="4">
         <v>846</v>
       </c>
       <c r="D167" s="4">
-        <v>5287</v>
+        <v>5331</v>
       </c>
       <c r="E167" s="4">
-        <v>20908</v>
+        <v>20977</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3924</v>
+        <v>3927</v>
       </c>
       <c r="C168" s="4">
         <v>87</v>
       </c>
       <c r="D168" s="4">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="E168" s="4">
-        <v>5172</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>4380</v>
+        <v>4383</v>
       </c>
       <c r="C169" s="4">
         <v>51</v>
       </c>
       <c r="D169" s="4">
-        <v>2245</v>
+        <v>2252</v>
       </c>
       <c r="E169" s="4">
-        <v>6676</v>
+        <v>6686</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>9674</v>
+        <v>9686</v>
       </c>
       <c r="C170" s="4">
         <v>825</v>
       </c>
       <c r="D170" s="4">
-        <v>2374</v>
+        <v>2384</v>
       </c>
       <c r="E170" s="4">
-        <v>12873</v>
+        <v>12895</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>320493</v>
+        <v>321907</v>
       </c>
       <c r="C171" s="4">
-        <v>15876</v>
+        <v>15900</v>
       </c>
       <c r="D171" s="4">
-        <v>34826</v>
+        <v>35453</v>
       </c>
       <c r="E171" s="4">
-        <v>371195</v>
+        <v>373260</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>7097</v>
+        <v>7107</v>
       </c>
       <c r="C172" s="4">
         <v>783</v>
       </c>
       <c r="D172" s="4">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="E172" s="4">
-        <v>9419</v>
+        <v>9433</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>5162</v>
+        <v>5166</v>
       </c>
       <c r="C173" s="4">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D173" s="4">
-        <v>3555</v>
+        <v>3561</v>
       </c>
       <c r="E173" s="4">
-        <v>9380</v>
+        <v>9392</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>37546</v>
+        <v>37677</v>
       </c>
       <c r="C175" s="4">
         <v>1122</v>
       </c>
       <c r="D175" s="4">
-        <v>5353</v>
+        <v>5458</v>
       </c>
       <c r="E175" s="4">
-        <v>44021</v>
+        <v>44257</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>23554</v>
+        <v>23607</v>
       </c>
       <c r="C176" s="4">
         <v>1522</v>
       </c>
       <c r="D176" s="4">
-        <v>7343</v>
+        <v>7419</v>
       </c>
       <c r="E176" s="4">
-        <v>32419</v>
+        <v>32548</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>3164</v>
+        <v>3187</v>
       </c>
       <c r="C177" s="4">
         <v>754</v>
       </c>
       <c r="D177" s="4">
-        <v>1785</v>
+        <v>1792</v>
       </c>
       <c r="E177" s="4">
-        <v>5703</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4069,10 +4069,10 @@
         <v>139</v>
       </c>
       <c r="D178" s="4">
-        <v>2691</v>
+        <v>2697</v>
       </c>
       <c r="E178" s="4">
-        <v>10724</v>
+        <v>10730</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>196165</v>
+        <v>196639</v>
       </c>
       <c r="C179" s="4">
-        <v>38907</v>
+        <v>38980</v>
       </c>
       <c r="D179" s="4">
-        <v>41729</v>
+        <v>42197</v>
       </c>
       <c r="E179" s="4">
-        <v>276801</v>
+        <v>277816</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C180" s="4">
         <v>261</v>
       </c>
       <c r="D180" s="4">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E180" s="4">
-        <v>1024</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C181" s="4">
         <v>240</v>
       </c>
       <c r="D181" s="4">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E181" s="4">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>25501</v>
+        <v>25563</v>
       </c>
       <c r="C182" s="4">
-        <v>5186</v>
+        <v>5188</v>
       </c>
       <c r="D182" s="4">
-        <v>8646</v>
+        <v>8794</v>
       </c>
       <c r="E182" s="4">
-        <v>39333</v>
+        <v>39545</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>12321</v>
+        <v>12348</v>
       </c>
       <c r="C183" s="4">
         <v>902</v>
       </c>
       <c r="D183" s="4">
-        <v>4360</v>
+        <v>4372</v>
       </c>
       <c r="E183" s="4">
-        <v>17583</v>
+        <v>17622</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>8189</v>
+        <v>8220</v>
       </c>
       <c r="C184" s="4">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="D184" s="4">
-        <v>2851</v>
+        <v>2871</v>
       </c>
       <c r="E184" s="4">
-        <v>12031</v>
+        <v>12084</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>61705</v>
+        <v>62468</v>
       </c>
       <c r="C185" s="4">
-        <v>5731</v>
+        <v>5736</v>
       </c>
       <c r="D185" s="4">
-        <v>15293</v>
+        <v>15444</v>
       </c>
       <c r="E185" s="4">
-        <v>82729</v>
+        <v>83648</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1788</v>
+        <v>1795</v>
       </c>
       <c r="C186" s="4">
         <v>226</v>
       </c>
       <c r="D186" s="4">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="E186" s="4">
-        <v>3090</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>9231</v>
+        <v>9232</v>
       </c>
       <c r="C187" s="4">
         <v>95</v>
       </c>
       <c r="D187" s="4">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="E187" s="4">
-        <v>10226</v>
+        <v>10233</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>29239</v>
+        <v>29295</v>
       </c>
       <c r="C188" s="4">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D188" s="4">
-        <v>5036</v>
+        <v>5079</v>
       </c>
       <c r="E188" s="4">
-        <v>35403</v>
+        <v>35503</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>67204</v>
+        <v>67437</v>
       </c>
       <c r="C189" s="4">
-        <v>6760</v>
+        <v>6761</v>
       </c>
       <c r="D189" s="4">
-        <v>10256</v>
+        <v>10341</v>
       </c>
       <c r="E189" s="4">
-        <v>84220</v>
+        <v>84539</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7246</v>
+        <v>7248</v>
       </c>
       <c r="C190" s="4">
         <v>35</v>
       </c>
       <c r="D190" s="4">
-        <v>1186</v>
+        <v>1202</v>
       </c>
       <c r="E190" s="4">
-        <v>8467</v>
+        <v>8485</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2579</v>
+        <v>2585</v>
       </c>
       <c r="C191" s="4">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D191" s="4">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="E191" s="4">
-        <v>3546</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>43112</v>
+        <v>43199</v>
       </c>
       <c r="C192" s="4">
-        <v>13712</v>
+        <v>13714</v>
       </c>
       <c r="D192" s="4">
-        <v>9909</v>
+        <v>9995</v>
       </c>
       <c r="E192" s="4">
-        <v>66733</v>
+        <v>66908</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="C194" s="4">
         <v>65</v>
       </c>
       <c r="D194" s="4">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E194" s="4">
-        <v>2278</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5466</v>
+        <v>5478</v>
       </c>
       <c r="C195" s="4">
         <v>501</v>
       </c>
       <c r="D195" s="4">
-        <v>1459</v>
+        <v>1503</v>
       </c>
       <c r="E195" s="4">
-        <v>7426</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>6008</v>
+        <v>6018</v>
       </c>
       <c r="C196" s="4">
         <v>148</v>
       </c>
       <c r="D196" s="4">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="E196" s="4">
-        <v>6907</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3710</v>
+        <v>3713</v>
       </c>
       <c r="C197" s="4">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D197" s="4">
-        <v>2773</v>
+        <v>2791</v>
       </c>
       <c r="E197" s="4">
-        <v>6847</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4403,7 +4403,7 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C198" s="4">
         <v>66</v>
@@ -4412,7 +4412,7 @@
         <v>34</v>
       </c>
       <c r="E198" s="4">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>10586</v>
+        <v>10601</v>
       </c>
       <c r="C199" s="4">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D199" s="4">
-        <v>5899</v>
+        <v>5937</v>
       </c>
       <c r="E199" s="4">
-        <v>16753</v>
+        <v>16808</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>66374</v>
+        <v>66577</v>
       </c>
       <c r="C200" s="4">
-        <v>4942</v>
+        <v>4950</v>
       </c>
       <c r="D200" s="4">
-        <v>4522</v>
+        <v>4589</v>
       </c>
       <c r="E200" s="4">
-        <v>75838</v>
+        <v>76116</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5440</v>
+        <v>5444</v>
       </c>
       <c r="C201" s="4">
         <v>143</v>
       </c>
       <c r="D201" s="4">
-        <v>2512</v>
+        <v>2516</v>
       </c>
       <c r="E201" s="4">
-        <v>8095</v>
+        <v>8103</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>16874</v>
+        <v>16892</v>
       </c>
       <c r="C202" s="4">
         <v>1924</v>
       </c>
       <c r="D202" s="4">
-        <v>2114</v>
+        <v>2134</v>
       </c>
       <c r="E202" s="4">
-        <v>20912</v>
+        <v>20950</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>5534</v>
+        <v>5544</v>
       </c>
       <c r="C203" s="4">
         <v>373</v>
       </c>
       <c r="D203" s="4">
-        <v>1839</v>
+        <v>1848</v>
       </c>
       <c r="E203" s="4">
-        <v>7746</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>5187</v>
+        <v>5190</v>
       </c>
       <c r="C204" s="4">
         <v>69</v>
       </c>
       <c r="D204" s="4">
-        <v>2295</v>
+        <v>2319</v>
       </c>
       <c r="E204" s="4">
-        <v>7551</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>14889</v>
+        <v>14968</v>
       </c>
       <c r="C205" s="4">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="D205" s="4">
-        <v>2550</v>
+        <v>2603</v>
       </c>
       <c r="E205" s="4">
-        <v>18847</v>
+        <v>18981</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>26943</v>
+        <v>27004</v>
       </c>
       <c r="C206" s="4">
-        <v>7184</v>
+        <v>7198</v>
       </c>
       <c r="D206" s="4">
-        <v>13533</v>
+        <v>13694</v>
       </c>
       <c r="E206" s="4">
-        <v>47660</v>
+        <v>47896</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="C207" s="4">
         <v>78</v>
       </c>
       <c r="D207" s="4">
-        <v>1865</v>
+        <v>1874</v>
       </c>
       <c r="E207" s="4">
-        <v>4519</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15798</v>
+        <v>15800</v>
       </c>
       <c r="C209" s="4">
         <v>171</v>
       </c>
       <c r="D209" s="4">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="E209" s="4">
-        <v>16581</v>
+        <v>16595</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C210" s="4">
         <v>69</v>
       </c>
       <c r="D210" s="4">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="E210" s="4">
-        <v>1180</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>10749</v>
+        <v>10792</v>
       </c>
       <c r="C211" s="4">
         <v>421</v>
       </c>
       <c r="D211" s="4">
-        <v>2767</v>
+        <v>2798</v>
       </c>
       <c r="E211" s="4">
-        <v>13937</v>
+        <v>14011</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4641,16 +4641,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C212" s="4">
         <v>122</v>
       </c>
       <c r="D212" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E212" s="4">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>161817</v>
+        <v>161966</v>
       </c>
       <c r="C213" s="4">
         <v>8946</v>
       </c>
       <c r="D213" s="4">
-        <v>18339</v>
+        <v>18464</v>
       </c>
       <c r="E213" s="4">
-        <v>189102</v>
+        <v>189376</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3825</v>
+        <v>3836</v>
       </c>
       <c r="C214" s="4">
         <v>369</v>
       </c>
       <c r="D214" s="4">
-        <v>3809</v>
+        <v>3821</v>
       </c>
       <c r="E214" s="4">
-        <v>8003</v>
+        <v>8026</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>45470</v>
+        <v>45755</v>
       </c>
       <c r="C215" s="4">
         <v>551</v>
       </c>
       <c r="D215" s="4">
-        <v>8430</v>
+        <v>8522</v>
       </c>
       <c r="E215" s="4">
-        <v>54451</v>
+        <v>54828</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2578</v>
+        <v>2586</v>
       </c>
       <c r="C216" s="4">
         <v>130</v>
       </c>
       <c r="D216" s="4">
-        <v>1601</v>
+        <v>1612</v>
       </c>
       <c r="E216" s="4">
-        <v>4309</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4732,10 +4732,10 @@
         <v>6</v>
       </c>
       <c r="D217" s="4">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E217" s="4">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E218" s="4">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="C219" s="4">
         <v>27</v>
       </c>
       <c r="D219" s="4">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E219" s="4">
-        <v>1876</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3441</v>
+        <v>3453</v>
       </c>
       <c r="C220" s="4">
         <v>271</v>
       </c>
       <c r="D220" s="4">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="E220" s="4">
-        <v>4444</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1447410</v>
+        <v>1454992</v>
       </c>
       <c r="C221" s="4">
-        <v>86423</v>
+        <v>86494</v>
       </c>
       <c r="D221" s="4">
-        <v>159513</v>
+        <v>161376</v>
       </c>
       <c r="E221" s="4">
-        <v>1693346</v>
+        <v>1702862</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>79058</v>
+        <v>79138</v>
       </c>
       <c r="C222" s="4">
-        <v>3167</v>
+        <v>3173</v>
       </c>
       <c r="D222" s="4">
-        <v>39104</v>
+        <v>40075</v>
       </c>
       <c r="E222" s="4">
-        <v>121329</v>
+        <v>122386</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4834,10 +4834,10 @@
         <v>3</v>
       </c>
       <c r="D223" s="4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E223" s="4">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="C224" s="4">
         <v>104</v>
       </c>
       <c r="D224" s="4">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="E224" s="4">
-        <v>4197</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>20806</v>
+        <v>20816</v>
       </c>
       <c r="C226" s="4">
         <v>1087</v>
       </c>
       <c r="D226" s="4">
-        <v>3256</v>
+        <v>3261</v>
       </c>
       <c r="E226" s="4">
-        <v>25149</v>
+        <v>25164</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>69271</v>
+        <v>69477</v>
       </c>
       <c r="C227" s="4">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="D227" s="4">
-        <v>36930</v>
+        <v>37075</v>
       </c>
       <c r="E227" s="4">
-        <v>107693</v>
+        <v>108046</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>880705</v>
+        <v>886134</v>
       </c>
       <c r="C228" s="4">
-        <v>38423</v>
+        <v>38435</v>
       </c>
       <c r="D228" s="4">
-        <v>114045</v>
+        <v>115758</v>
       </c>
       <c r="E228" s="4">
-        <v>1033173</v>
+        <v>1040327</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>9905</v>
+        <v>9918</v>
       </c>
       <c r="C229" s="4">
         <v>228</v>
       </c>
       <c r="D229" s="4">
-        <v>2437</v>
+        <v>2453</v>
       </c>
       <c r="E229" s="4">
-        <v>12570</v>
+        <v>12599</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>8167</v>
+        <v>8197</v>
       </c>
       <c r="C230" s="4">
         <v>851</v>
       </c>
       <c r="D230" s="4">
-        <v>3952</v>
+        <v>3963</v>
       </c>
       <c r="E230" s="4">
-        <v>12970</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>9857</v>
+        <v>9874</v>
       </c>
       <c r="C231" s="4">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="D231" s="4">
-        <v>3108</v>
+        <v>3120</v>
       </c>
       <c r="E231" s="4">
-        <v>14915</v>
+        <v>14948</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C232" s="4">
         <v>69</v>
       </c>
       <c r="D232" s="4">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E232" s="4">
-        <v>2746</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>22539</v>
+        <v>22680</v>
       </c>
       <c r="C233" s="4">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="D233" s="4">
-        <v>1272</v>
+        <v>1296</v>
       </c>
       <c r="E233" s="4">
-        <v>24171</v>
+        <v>24355</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>39251</v>
+        <v>39428</v>
       </c>
       <c r="C234" s="4">
         <v>1145</v>
       </c>
       <c r="D234" s="4">
-        <v>8092</v>
+        <v>8226</v>
       </c>
       <c r="E234" s="4">
-        <v>48488</v>
+        <v>48799</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>16929</v>
+        <v>16967</v>
       </c>
       <c r="C235" s="4">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="D235" s="4">
-        <v>5624</v>
+        <v>5658</v>
       </c>
       <c r="E235" s="4">
-        <v>24277</v>
+        <v>24353</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>35988</v>
+        <v>36067</v>
       </c>
       <c r="C236" s="4">
-        <v>1579</v>
+        <v>1626</v>
       </c>
       <c r="D236" s="4">
-        <v>12550</v>
+        <v>12719</v>
       </c>
       <c r="E236" s="4">
-        <v>50117</v>
+        <v>50412</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>90946</v>
+        <v>91163</v>
       </c>
       <c r="C237" s="4">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="D237" s="4">
-        <v>8477</v>
+        <v>8516</v>
       </c>
       <c r="E237" s="4">
-        <v>100558</v>
+        <v>100818</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>28718</v>
+        <v>28842</v>
       </c>
       <c r="C238" s="4">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D238" s="4">
-        <v>2502</v>
+        <v>2556</v>
       </c>
       <c r="E238" s="4">
-        <v>31984</v>
+        <v>32163</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5106,10 +5106,10 @@
         <v>131</v>
       </c>
       <c r="D239" s="4">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E239" s="4">
-        <v>4687</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>33237</v>
+        <v>33295</v>
       </c>
       <c r="C240" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D240" s="4">
-        <v>5357</v>
+        <v>5414</v>
       </c>
       <c r="E240" s="4">
-        <v>39137</v>
+        <v>39253</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>324578</v>
+        <v>326448</v>
       </c>
       <c r="C241" s="4">
-        <v>4329</v>
+        <v>4332</v>
       </c>
       <c r="D241" s="4">
-        <v>41832</v>
+        <v>42271</v>
       </c>
       <c r="E241" s="4">
-        <v>370739</v>
+        <v>373051</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>28559</v>
+        <v>28635</v>
       </c>
       <c r="C242" s="4">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D242" s="4">
-        <v>2460</v>
+        <v>2511</v>
       </c>
       <c r="E242" s="4">
-        <v>31802</v>
+        <v>31930</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C243" s="4">
         <v>325</v>
       </c>
       <c r="D243" s="4">
-        <v>1881</v>
+        <v>1885</v>
       </c>
       <c r="E243" s="4">
-        <v>3719</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>98750</v>
+        <v>98812</v>
       </c>
       <c r="C244" s="4">
-        <v>5784</v>
+        <v>5786</v>
       </c>
       <c r="D244" s="4">
-        <v>19264</v>
+        <v>19403</v>
       </c>
       <c r="E244" s="4">
-        <v>123798</v>
+        <v>124001</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>11072</v>
+        <v>11101</v>
       </c>
       <c r="C245" s="4">
         <v>542</v>
       </c>
       <c r="D245" s="4">
-        <v>3676</v>
+        <v>3692</v>
       </c>
       <c r="E245" s="4">
-        <v>15290</v>
+        <v>15335</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>21460</v>
+        <v>21526</v>
       </c>
       <c r="C246" s="4">
         <v>168</v>
       </c>
       <c r="D246" s="4">
-        <v>1421</v>
+        <v>1475</v>
       </c>
       <c r="E246" s="4">
-        <v>23049</v>
+        <v>23169</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>373615</v>
+        <v>375629</v>
       </c>
       <c r="C247" s="4">
-        <v>13870</v>
+        <v>13875</v>
       </c>
       <c r="D247" s="4">
-        <v>49509</v>
+        <v>50320</v>
       </c>
       <c r="E247" s="4">
-        <v>436994</v>
+        <v>439824</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>28835</v>
+        <v>28910</v>
       </c>
       <c r="C248" s="4">
-        <v>919</v>
+        <v>934</v>
       </c>
       <c r="D248" s="4">
-        <v>6203</v>
+        <v>6220</v>
       </c>
       <c r="E248" s="4">
-        <v>35957</v>
+        <v>36064</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5276,10 +5276,10 @@
         <v>40</v>
       </c>
       <c r="D249" s="4">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E249" s="4">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>41945</v>
+        <v>42012</v>
       </c>
       <c r="C250" s="4">
         <v>3021</v>
       </c>
       <c r="D250" s="4">
-        <v>4929</v>
+        <v>4951</v>
       </c>
       <c r="E250" s="4">
-        <v>49895</v>
+        <v>49984</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>15030</v>
+        <v>15119</v>
       </c>
       <c r="C251" s="4">
         <v>1739</v>
       </c>
       <c r="D251" s="4">
-        <v>3266</v>
+        <v>3282</v>
       </c>
       <c r="E251" s="4">
-        <v>20035</v>
+        <v>20140</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,7 +5321,7 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="C252" s="4">
         <v>94</v>
@@ -5330,7 +5330,7 @@
         <v>478</v>
       </c>
       <c r="E252" s="4">
-        <v>2706</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>6397</v>
+        <v>6412</v>
       </c>
       <c r="C253" s="4">
         <v>530</v>
       </c>
       <c r="D253" s="4">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="E253" s="4">
-        <v>8534</v>
+        <v>8550</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>15233</v>
+        <v>15325</v>
       </c>
       <c r="C254" s="4">
         <v>120</v>
       </c>
       <c r="D254" s="4">
-        <v>3736</v>
+        <v>3746</v>
       </c>
       <c r="E254" s="4">
-        <v>19089</v>
+        <v>19191</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>8934</v>
+        <v>8977</v>
       </c>
       <c r="C255" s="4">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D255" s="4">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="E255" s="4">
-        <v>9744</v>
+        <v>9809</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>132657</v>
+        <v>132796</v>
       </c>
       <c r="C256" s="4">
-        <v>9039</v>
+        <v>9178</v>
       </c>
       <c r="D256" s="4">
-        <v>4801</v>
+        <v>4871</v>
       </c>
       <c r="E256" s="4">
-        <v>146497</v>
+        <v>146845</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>20021752</v>
+        <v>20105901</v>
       </c>
       <c r="C257" s="4">
-        <v>1038692</v>
+        <v>1040861</v>
       </c>
       <c r="D257" s="4">
-        <v>2712254</v>
+        <v>2747349</v>
       </c>
       <c r="E257" s="4">
-        <v>23772698</v>
+        <v>23894111</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
